--- a/data/trans_bre/P1802_2016_2023-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P1802_2016_2023-Dificultad-trans_bre.xlsx
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.337550611530522</v>
+        <v>1.61586887767206</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.534893101572856</v>
+        <v>-4.852558494764402</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.07532684266096942</v>
+        <v>0.08711722616621018</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.2537187847288078</v>
+        <v>-0.2191536591388804</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>7.768600063877567</v>
+        <v>8.01984577571405</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.769567414361027</v>
+        <v>3.574913538438673</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.5336837942886947</v>
+        <v>0.554583943478534</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>0.2359189805389666</v>
+        <v>0.2272428442421519</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>7.097992886880214</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>5.783664831551991</v>
+        <v>5.783664831551989</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0.5083026505730627</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>0.4834655517735538</v>
+        <v>0.4834655517735537</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.509890646022255</v>
+        <v>3.776226494975289</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>2.78937026397843</v>
+        <v>2.949917995343174</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.2186779519747217</v>
+        <v>0.2412786312825471</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.2027570005798501</v>
+        <v>0.2034040470164108</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>10.43186571340038</v>
+        <v>10.69205751696099</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>8.559983024252514</v>
+        <v>8.715424680869107</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8347857914166705</v>
+        <v>0.8364601116626756</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.8442285615503762</v>
+        <v>0.8413115768857753</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9764373343293362</v>
+        <v>0.8099602984830768</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.831497171339169</v>
+        <v>2.730853417630549</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>0.07055129907056026</v>
+        <v>0.05885036696910791</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>0.1793522778118886</v>
+        <v>0.1789440192322719</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.140213541388984</v>
+        <v>7.996226526205296</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.903127277159548</v>
+        <v>8.678401946209453</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.7867448555015886</v>
+        <v>0.7480330156246903</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.7506749648522321</v>
+        <v>0.7412144056649773</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-1.703326469229363</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>1.257270093012688</v>
+        <v>1.257270093012683</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.1179176727990442</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.06792852592656629</v>
+        <v>0.06792852592656598</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.91779479023297</v>
+        <v>-5.550478196972426</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.484601948068364</v>
+        <v>-1.998462375837892</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3547998894081776</v>
+        <v>-0.3428148051856562</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1177076891450967</v>
+        <v>-0.09705237571722382</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.098907665054427</v>
+        <v>3.143434605807459</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>4.754380806542295</v>
+        <v>5.208574983901683</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.2711706818088331</v>
+        <v>0.2692668308631554</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2879998207562149</v>
+        <v>0.312459668855395</v>
       </c>
     </row>
     <row r="16">
@@ -848,13 +848,13 @@
         <v>4.555580126524775</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>3.467089113949093</v>
+        <v>3.46708911394909</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>0.3190832608674494</v>
       </c>
       <c r="F16" s="6" t="n">
-        <v>0.2267968193533252</v>
+        <v>0.226796819353325</v>
       </c>
     </row>
     <row r="17">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.770983173678763</v>
+        <v>2.652300368179213</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.621636387865598</v>
+        <v>1.491065103695566</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.1831834370469012</v>
+        <v>0.172943078853493</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.1016442735034493</v>
+        <v>0.09392110029687689</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.397080181898144</v>
+        <v>6.359886597325214</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.112504171157683</v>
+        <v>5.050792726241315</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.4775533391822931</v>
+        <v>0.4784664420116073</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.3594730802069147</v>
+        <v>0.3547215539462248</v>
       </c>
     </row>
     <row r="19">
